--- a/Task tracker.xlsx
+++ b/Task tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\SQL\SQL training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golla\OneDrive - Texas A&amp;M University - Kingsville\Desktop\SQL-Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0186E96-7C4D-4587-ADA2-506EAE4683DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557B103F-9E09-4A12-B3FD-BDCDD854BC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>S.No</t>
   </si>
@@ -407,15 +407,15 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.90625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -435,7 +435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -455,7 +455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -466,10 +466,12 @@
         <v>10</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -481,7 +483,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -491,7 +493,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -499,7 +501,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -507,7 +509,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -515,7 +517,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -523,7 +525,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -531,7 +533,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -539,7 +541,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -547,7 +549,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -555,7 +557,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -563,7 +565,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -571,7 +573,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -579,7 +581,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -587,7 +589,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -595,7 +597,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -603,7 +605,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -611,7 +613,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -619,7 +621,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -627,7 +629,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -635,7 +637,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -643,7 +645,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -651,7 +653,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -659,7 +661,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -667,7 +669,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -675,7 +677,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -683,7 +685,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>

--- a/Task tracker.xlsx
+++ b/Task tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golla\OneDrive - Texas A&amp;M University - Kingsville\Desktop\SQL-Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557B103F-9E09-4A12-B3FD-BDCDD854BC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E40DE91-5284-4FD8-BB32-2C18B6967651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
